--- a/plan.xlsx
+++ b/plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1-brain_insipred\Courses\acedemica\4-Verification\projects\FIFO-verification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86E9507C-5563-4B04-989B-236F0D7C2575}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AB48689-8A63-4313-A3AB-52CD2903E540}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="58">
   <si>
     <t>Label</t>
   </si>
@@ -118,10 +118,6 @@
   </si>
   <si>
     <t>No functional coverage specified for this test</t>
-  </si>
-  <si>
-    <t>check output aganist  
-against golden model and assertion  labeled :p1</t>
   </si>
   <si>
     <t xml:space="preserve">constraint on reset 90% one  and 10%  zero </t>
@@ -134,10 +130,6 @@
     <t xml:space="preserve">constraint on wr_en 60% is high and 40% is low </t>
   </si>
   <si>
-    <t>check output aganist  
-against golden model and assertion  labeled :p2</t>
-  </si>
-  <si>
     <t>in case of wr_en &amp;&amp;almostfull==0&amp;&amp;full==0  at next posedge clk (check at negedge)
 data[wrt_ptr-1]==data_in ,wr_ack==1,overflow==0,full=0,almostfull==1 if there one place to write only ;</t>
   </si>
@@ -150,18 +142,10 @@
 almostfull   labeled p1</t>
   </si>
   <si>
-    <t>check output aganist  
-against golden model and assertion  labeled :p3</t>
-  </si>
-  <si>
     <t>in case of wr_en &amp;&amp;almostfull==0&amp;&amp;full==1  at next posedge clk (check at negedge)
 data[wrt_ptr-1]==data_in has no change  ,wr_ack==0,overflow==1,almostfull=0, full=1;</t>
   </si>
   <si>
-    <t>check output aganist  
-against golden model and assertion  labeled :p4</t>
-  </si>
-  <si>
     <t>N/A</t>
   </si>
   <si>
@@ -169,27 +153,12 @@
   </si>
   <si>
     <t xml:space="preserve">constraint on rd_en 60% is high and 40% is low </t>
-  </si>
-  <si>
-    <t>assertion labedl:p5</t>
-  </si>
-  <si>
-    <t>check output aganist  
-against golden model and assertion  labeled :p6</t>
   </si>
   <si>
     <t>in case of rd_en &amp;&amp;almost_empty==0&amp;&amp;empty==0  at next posedge clk (check at negedge)
 data_out==mem[rd_ptr-1] ,underoverflow==0,empty=0,almostempty==1 if there one place to read only ;</t>
   </si>
   <si>
-    <t>check output aganist  
-against golden model and assertion  labeled :p7</t>
-  </si>
-  <si>
-    <t>check output aganist  
-against golden model and assertion  labeled :p8</t>
-  </si>
-  <si>
     <t>cross coverage between rd_en&amp;&amp;empty
 &amp;&amp;almostempty   labeled p2</t>
   </si>
@@ -202,9 +171,6 @@
 data_out==mem[rd_ptr-1] ,underoverflow==1,empty=1,almostempty==0;</t>
   </si>
   <si>
-    <t>assertion labedl:p7</t>
-  </si>
-  <si>
     <t>mix of rd_en   60% wr_en 40%</t>
   </si>
   <si>
@@ -223,6 +189,29 @@
   <si>
     <t>coverage of data in[bins for values &lt; .25 ,.5,.75,1  
 of max value]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">check output aganist  
+against golden model </t>
+  </si>
+  <si>
+    <t>check output aganist  
+against golden model</t>
+  </si>
+  <si>
+    <t>assertion labedl:p2</t>
+  </si>
+  <si>
+    <t>assertion labedl:p3</t>
+  </si>
+  <si>
+    <t>check  !(intf.full === 1 &amp;&amp; intf.empty === 1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">check  !(intf.underflow === 1 &amp;&amp; intf.overflow === 1) </t>
+  </si>
+  <si>
+    <t>assertion labedl:p4</t>
   </si>
 </sst>
 </file>
@@ -579,7 +568,7 @@
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -613,16 +602,16 @@
         <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D2" t="s">
         <v>30</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="72" x14ac:dyDescent="0.3">
@@ -630,33 +619,33 @@
         <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="E3" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
@@ -664,16 +653,16 @@
         <v>8</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -681,16 +670,16 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E6" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="72" x14ac:dyDescent="0.3">
@@ -698,16 +687,16 @@
         <v>10</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C7" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
@@ -715,16 +704,16 @@
         <v>11</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="C8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
@@ -732,16 +721,16 @@
         <v>12</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="C9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -749,16 +738,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C10" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D10" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E10" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -766,16 +755,16 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="C11" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E11" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
@@ -783,17 +772,29 @@
         <v>14</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>15</v>
       </c>
+      <c r="B13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
